--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>3.100208919862333</v>
+        <v>0.8580948938848888</v>
       </c>
       <c r="R2">
-        <v>27.901880278761</v>
+        <v>7.722854044964</v>
       </c>
       <c r="S2">
-        <v>0.01818639390956874</v>
+        <v>0.005201534496776711</v>
       </c>
       <c r="T2">
-        <v>0.01818639390956875</v>
+        <v>0.005201534496776712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>8.728640278477</v>
+        <v>2.313161468954</v>
       </c>
       <c r="R3">
-        <v>78.55776250629299</v>
+        <v>20.818453220586</v>
       </c>
       <c r="S3">
-        <v>0.0512038041637399</v>
+        <v>0.01402174661931153</v>
       </c>
       <c r="T3">
-        <v>0.0512038041637399</v>
+        <v>0.01402174661931153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>3.392503768005555</v>
+        <v>1.420310515879111</v>
       </c>
       <c r="R4">
-        <v>30.53253391205</v>
+        <v>12.782794642912</v>
       </c>
       <c r="S4">
-        <v>0.01990104907748764</v>
+        <v>0.008609530480985447</v>
       </c>
       <c r="T4">
-        <v>0.01990104907748764</v>
+        <v>0.008609530480985448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>1.821950145999889</v>
+        <v>0.4093769546853333</v>
       </c>
       <c r="R5">
-        <v>16.397551313999</v>
+        <v>3.684392592168</v>
       </c>
       <c r="S5">
-        <v>0.01068789358886872</v>
+        <v>0.002481530151450603</v>
       </c>
       <c r="T5">
-        <v>0.01068789358886873</v>
+        <v>0.002481530151450604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N6">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q6">
-        <v>17.222269825606</v>
+        <v>17.98768989270533</v>
       </c>
       <c r="R6">
-        <v>155.000428430454</v>
+        <v>161.889209034348</v>
       </c>
       <c r="S6">
-        <v>0.1010289922910288</v>
+        <v>0.10903641329298</v>
       </c>
       <c r="T6">
-        <v>0.1010289922910288</v>
+        <v>0.1090364132929801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q7">
         <v>48.48931216327799</v>
@@ -883,10 +883,10 @@
         <v>436.403809469502</v>
       </c>
       <c r="S7">
-        <v>0.2844471950763162</v>
+        <v>0.2939288320437198</v>
       </c>
       <c r="T7">
-        <v>0.2844471950763162</v>
+        <v>0.2939288320437199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N8">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q8">
-        <v>18.84602515096666</v>
+        <v>29.77305341524266</v>
       </c>
       <c r="R8">
-        <v>169.6142263587</v>
+        <v>267.957480737184</v>
       </c>
       <c r="S8">
-        <v>0.1105542387254144</v>
+        <v>0.1804760353632115</v>
       </c>
       <c r="T8">
-        <v>0.1105542387254144</v>
+        <v>0.1804760353632115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N9">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O9">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P9">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q9">
-        <v>10.12129112402067</v>
+        <v>8.581505102263998</v>
       </c>
       <c r="R9">
-        <v>91.09162011618599</v>
+        <v>77.23354592037599</v>
       </c>
       <c r="S9">
-        <v>0.05937334934931911</v>
+        <v>0.05201871627694301</v>
       </c>
       <c r="T9">
-        <v>0.05937334934931914</v>
+        <v>0.05201871627694302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N10">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q10">
-        <v>10.022329083611</v>
+        <v>7.893535619672445</v>
       </c>
       <c r="R10">
-        <v>90.200961752499</v>
+        <v>71.04182057705201</v>
       </c>
       <c r="S10">
-        <v>0.05879281987678771</v>
+        <v>0.04784843508551381</v>
       </c>
       <c r="T10">
-        <v>0.05879281987678773</v>
+        <v>0.04784843508551382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>66.035403</v>
       </c>
       <c r="O11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q11">
-        <v>28.21787420934301</v>
+        <v>21.278558559622</v>
       </c>
       <c r="R11">
-        <v>253.960867884087</v>
+        <v>191.507027036598</v>
       </c>
       <c r="S11">
-        <v>0.1655312235165624</v>
+        <v>0.1289847511951339</v>
       </c>
       <c r="T11">
-        <v>0.1655312235165624</v>
+        <v>0.1289847511951339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N12">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q12">
-        <v>10.96725738788333</v>
+        <v>13.06530516377956</v>
       </c>
       <c r="R12">
-        <v>98.70531649095</v>
+        <v>117.587746474016</v>
       </c>
       <c r="S12">
-        <v>0.06433594255077854</v>
+        <v>0.07919827516119782</v>
       </c>
       <c r="T12">
-        <v>0.06433594255077854</v>
+        <v>0.07919827516119783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N13">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O13">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P13">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q13">
-        <v>5.889984968482334</v>
+        <v>3.765820769602667</v>
       </c>
       <c r="R13">
-        <v>53.00986471634101</v>
+        <v>33.892386926424</v>
       </c>
       <c r="S13">
-        <v>0.03455173168233294</v>
+        <v>0.02282736650848103</v>
       </c>
       <c r="T13">
-        <v>0.03455173168233294</v>
+        <v>0.02282736650848104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N14">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O14">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P14">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q14">
-        <v>0.6637495252486666</v>
+        <v>1.567244882316</v>
       </c>
       <c r="R14">
-        <v>5.973745727238</v>
+        <v>14.105203940844</v>
       </c>
       <c r="S14">
-        <v>0.003893676405523511</v>
+        <v>0.009500206070864946</v>
       </c>
       <c r="T14">
-        <v>0.003893676405523511</v>
+        <v>0.009500206070864948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>66.035403</v>
       </c>
       <c r="O15">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P15">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q15">
-        <v>1.868787230366</v>
+        <v>4.224813013134001</v>
       </c>
       <c r="R15">
-        <v>16.819085073294</v>
+        <v>38.023317118206</v>
       </c>
       <c r="S15">
-        <v>0.01096264851277096</v>
+        <v>0.02560965085196699</v>
       </c>
       <c r="T15">
-        <v>0.01096264851277096</v>
+        <v>0.02560965085196699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N16">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O16">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P16">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q16">
-        <v>0.7263293615444444</v>
+        <v>2.594088839328001</v>
       </c>
       <c r="R16">
-        <v>6.536964253899999</v>
+        <v>23.346799553952</v>
       </c>
       <c r="S16">
-        <v>0.004260781198487554</v>
+        <v>0.0157246508301425</v>
       </c>
       <c r="T16">
-        <v>0.004260781198487554</v>
+        <v>0.0157246508301425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N17">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O17">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P17">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q17">
-        <v>0.3900764676491111</v>
+        <v>0.7476957871920001</v>
       </c>
       <c r="R17">
-        <v>3.510688208842</v>
+        <v>6.729262084728001</v>
       </c>
       <c r="S17">
-        <v>0.002288260075012912</v>
+        <v>0.004532325571320238</v>
       </c>
       <c r="T17">
-        <v>0.002288260075012913</v>
+        <v>0.004532325571320238</v>
       </c>
     </row>
   </sheetData>
